--- a/settimana4/giorno02/esercizio 1 giorno 2.xlsx
+++ b/settimana4/giorno02/esercizio 1 giorno 2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364C43B5-7289-4312-AB4A-6A5D226558C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D519076-A8B5-FD40-A8C1-D29B874A12AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{E123DFDF-41E7-4503-B4AC-A725FA0C5974}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E123DFDF-41E7-4503-B4AC-A725FA0C5974}"/>
   </bookViews>
   <sheets>
     <sheet name="anagrafica_aziendale" sheetId="1" r:id="rId1"/>
@@ -298,16 +298,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -322,8 +322,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10048875" y="190500"/>
-          <a:ext cx="2438400" cy="952500"/>
+          <a:off x="12865100" y="203200"/>
+          <a:ext cx="2794000" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -708,23 +708,23 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.86328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.7265625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1328125" style="1"/>
+    <col min="6" max="6" width="5.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.6640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -759,7 +759,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -783,12 +783,24 @@
         <f t="shared" ref="G2:G29" ca="1" si="1">DATEDIF(C2,TODAY(),"y")</f>
         <v>8</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H2" s="13">
+        <f ca="1">IF(G2&gt;=10,100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <f>IF(D2="Produzione",100,0)</f>
+        <v>100</v>
+      </c>
+      <c r="J2" s="13">
+        <f t="shared" ref="J2:J14" ca="1" si="2">IF(AND(D2="Amministrazione",G2&gt;=10),100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="13">
+        <f>IF(OR(D2="Direzione",D2="Commerciale"),100,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -812,12 +824,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H3" s="13">
+        <f t="shared" ref="H3:H29" ca="1" si="3">IF(G3&gt;=10,100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <f t="shared" ref="I3:I29" si="4">IF(D3="Produzione",100,0)</f>
+        <v>100</v>
+      </c>
+      <c r="J3" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="13">
+        <f t="shared" ref="K3:K29" si="5">IF(OR(D3="Direzione",D3="Commerciale"),100,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -841,12 +865,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H4" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I4" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K4" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -870,12 +906,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H5" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -899,12 +947,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>35</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H6" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -928,12 +988,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H7" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -957,12 +1029,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H8" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -984,14 +1068,26 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+        <v>5</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1009,18 +1105,30 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+        <v>26</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -1044,12 +1152,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H11" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1073,12 +1193,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>32</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H12" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1102,12 +1234,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>23</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H13" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1131,12 +1275,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H14" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1160,12 +1316,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>22</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H15" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <f ca="1">IF(AND(D15="Amministrazione",G15&gt;=10),100,0)</f>
+        <v>100</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1189,12 +1357,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H16" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" ref="J16:J29" ca="1" si="6">IF(AND(D16="Amministrazione",G16&gt;=10),100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -1218,12 +1398,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H17" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -1241,18 +1433,30 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H18" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -1276,12 +1480,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H19" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -1305,12 +1521,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H20" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -1334,12 +1562,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H21" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J21" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
@@ -1361,14 +1601,26 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+        <v>2</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J22" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
@@ -1392,12 +1644,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H23" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
@@ -1421,12 +1685,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>15</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H24" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="13">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
@@ -1450,12 +1726,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H25" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
@@ -1479,12 +1767,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H26" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J26" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>36</v>
       </c>
@@ -1508,12 +1808,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="H27" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J27" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
@@ -1535,14 +1847,26 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+        <v>11</v>
+      </c>
+      <c r="H28" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I28" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J28" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>38</v>
       </c>
@@ -1566,10 +1890,22 @@
         <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="H29" s="13">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="J29" s="13">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G29">
